--- a/data/ko/pos/ko-pos-dic.xlsx
+++ b/data/ko/pos/ko-pos-dic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="eomi" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="188">
   <si>
     <t>었</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>지만/EC</t>
-  </si>
-  <si>
-    <t>라/EFO</t>
   </si>
   <si>
     <t>느려서</t>
@@ -523,9 +520,6 @@
     <t>다/JX</t>
   </si>
   <si>
-    <t>ㄷ</t>
-  </si>
-  <si>
     <t>데다</t>
   </si>
   <si>
@@ -596,6 +590,18 @@
   </si>
   <si>
     <t>되/XSV</t>
+  </si>
+  <si>
+    <t>ㅂ니까</t>
+  </si>
+  <si>
+    <t>ㅂ니까/EF</t>
+  </si>
+  <si>
+    <t>라/EF</t>
+  </si>
+  <si>
+    <t>-워</t>
   </si>
 </sst>
 </file>
@@ -671,8 +677,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -820,7 +840,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="149">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -888,6 +908,13 @@
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -955,6 +982,13 @@
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1284,11 +1318,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1307,19 +1341,19 @@
         <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>36</v>
@@ -1361,7 +1395,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1369,19 +1403,19 @@
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1389,13 +1423,16 @@
         <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1403,10 +1440,10 @@
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1414,19 +1451,19 @@
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="G8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1434,10 +1471,10 @@
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1478,14 +1515,14 @@
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1493,16 +1530,16 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1538,7 +1575,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
@@ -1559,7 +1596,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
@@ -1577,7 +1614,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1585,10 +1622,10 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1618,10 +1655,10 @@
         <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1629,10 +1666,10 @@
         <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1640,17 +1677,17 @@
         <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1669,13 +1706,13 @@
         <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1700,7 +1737,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1730,20 +1767,20 @@
         <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1784,16 +1821,16 @@
         <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1801,16 +1838,16 @@
         <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1818,13 +1855,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1832,13 +1869,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1846,14 +1883,14 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>43</v>
@@ -1864,17 +1901,17 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1882,17 +1919,28 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1913,9 +1961,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1932,19 +1980,19 @@
         <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>36</v>
@@ -1955,242 +2003,242 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2211,9 +2259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2231,19 +2279,19 @@
         <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>36</v>
@@ -2254,170 +2302,170 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>46</v>
@@ -2425,46 +2473,46 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/ko/pos/ko-pos-dic.xlsx
+++ b/data/ko/pos/ko-pos-dic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="eomi" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="228">
   <si>
     <t>었</t>
   </si>
@@ -179,9 +179,6 @@
     <t>ㅕ서</t>
   </si>
   <si>
-    <t>ㅆ다</t>
-  </si>
-  <si>
     <t>봐</t>
   </si>
   <si>
@@ -426,9 +423,6 @@
   </si>
   <si>
     <t>힘든, 만든</t>
-  </si>
-  <si>
-    <t>만들기</t>
   </si>
   <si>
     <t>갔다</t>
@@ -517,9 +511,6 @@
     <t>으</t>
   </si>
   <si>
-    <t>다/JX</t>
-  </si>
-  <si>
     <t>데다</t>
   </si>
   <si>
@@ -602,6 +593,135 @@
   </si>
   <si>
     <t>-워</t>
+  </si>
+  <si>
+    <t>음운(phoneme)제약조건</t>
+  </si>
+  <si>
+    <t>#음절(surface)</t>
+  </si>
+  <si>
+    <t>형태(morpheme)제약조건</t>
+  </si>
+  <si>
+    <t>품사(pos)제약조건</t>
+  </si>
+  <si>
+    <t>불규칙(irregular)조건</t>
+  </si>
+  <si>
+    <t>형태소/POS(morpheme)</t>
+  </si>
+  <si>
+    <t>습니다</t>
+  </si>
+  <si>
+    <t>습니다/EF</t>
+  </si>
+  <si>
+    <t>하</t>
+  </si>
+  <si>
+    <t>하/XSV</t>
+  </si>
+  <si>
+    <t>과</t>
+  </si>
+  <si>
+    <t>과/JC</t>
+  </si>
+  <si>
+    <t>으나</t>
+  </si>
+  <si>
+    <t>으나/EC</t>
+  </si>
+  <si>
+    <t>와</t>
+  </si>
+  <si>
+    <t>와/JC</t>
+  </si>
+  <si>
+    <t>적/VCP</t>
+  </si>
+  <si>
+    <t>에서</t>
+  </si>
+  <si>
+    <t>에서/JKB</t>
+  </si>
+  <si>
+    <t>냐는</t>
+  </si>
+  <si>
+    <t>냐는/ETM</t>
+  </si>
+  <si>
+    <t>로</t>
+  </si>
+  <si>
+    <t>로/JKB</t>
+  </si>
+  <si>
+    <t>#ㅆ다</t>
+  </si>
+  <si>
+    <t>데다/JX</t>
+  </si>
+  <si>
+    <t>어</t>
+  </si>
+  <si>
+    <t>어/EC</t>
+  </si>
+  <si>
+    <t>엔</t>
+  </si>
+  <si>
+    <t>에/JKB+는/JX</t>
+  </si>
+  <si>
+    <t>으로써</t>
+  </si>
+  <si>
+    <t>으로써/JKB</t>
+  </si>
+  <si>
+    <t>ㅁ</t>
+  </si>
+  <si>
+    <t>ㅁ/ETN</t>
+  </si>
+  <si>
+    <t>함으로써</t>
+  </si>
+  <si>
+    <t>함께</t>
+  </si>
+  <si>
+    <t>함께/MAG</t>
+  </si>
+  <si>
+    <t>부사</t>
+  </si>
+  <si>
+    <t>~와 함께</t>
+  </si>
+  <si>
+    <t>와/JKB</t>
+  </si>
+  <si>
+    <t>과/JKB</t>
+  </si>
+  <si>
+    <t>~과 함께</t>
+  </si>
+  <si>
+    <t>내</t>
+  </si>
+  <si>
+    <t>내/VX</t>
   </si>
 </sst>
 </file>
@@ -677,8 +797,92 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="149">
+  <cellStyleXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -840,7 +1044,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="149">
+  <cellStyles count="233">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -915,6 +1119,48 @@
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -989,6 +1235,48 @@
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1318,20 +1606,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="22.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.83203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -1341,22 +1631,22 @@
         <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>39</v>
@@ -1367,10 +1657,17 @@
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>110</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1378,10 +1675,10 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1394,28 +1691,25 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1423,16 +1717,16 @@
         <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1440,10 +1734,10 @@
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1451,19 +1745,19 @@
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1471,10 +1765,10 @@
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1482,10 +1776,10 @@
         <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1493,10 +1787,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1504,10 +1798,10 @@
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1515,14 +1809,10 @@
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="1" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1530,16 +1820,14 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>133</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1547,10 +1835,16 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>131</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1558,10 +1852,10 @@
         <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1569,20 +1863,10 @@
         <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1590,20 +1874,20 @@
         <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1611,10 +1895,20 @@
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>186</v>
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1622,10 +1916,10 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1633,10 +1927,10 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1644,10 +1938,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1655,10 +1949,13 @@
         <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>165</v>
+        <v>217</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1666,10 +1963,10 @@
         <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1677,17 +1974,10 @@
         <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1695,10 +1985,10 @@
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1706,13 +1996,10 @@
         <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1720,10 +2007,10 @@
         <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1731,13 +2018,10 @@
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1745,10 +2029,13 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>147</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1756,10 +2043,10 @@
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1767,20 +2054,10 @@
         <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1788,10 +2065,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1799,10 +2079,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1810,10 +2090,10 @@
         <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1821,16 +2101,20 @@
         <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G36" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1838,16 +2122,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1855,13 +2133,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1869,13 +2144,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1883,17 +2155,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1901,17 +2166,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="3"/>
+        <v>4</v>
+      </c>
       <c r="G41" s="3" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1919,17 +2183,16 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3"/>
+        <v>15</v>
+      </c>
       <c r="G42" s="3" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1937,14 +2200,85 @@
         <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>185</v>
+        <v>9</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H42">
+  <sortState ref="A2:H48">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1959,11 +2293,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1980,19 +2314,19 @@
         <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>36</v>
@@ -2003,134 +2337,137 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>209</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>99</v>
@@ -2141,108 +2478,188 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:H22">
+  <sortState ref="A2:H29">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2257,11 +2674,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2279,19 +2696,19 @@
         <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>36</v>
@@ -2302,79 +2719,79 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2382,142 +2799,208 @@
         <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>114</v>
+      <c r="C25" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H20">
-    <sortCondition ref="C2"/>
+  <sortState ref="A2:H26">
+    <sortCondition ref="C17"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/ko/pos/ko-pos-dic.xlsx
+++ b/data/ko/pos/ko-pos-dic.xlsx
@@ -4,13 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26500" windowHeight="13620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eomi" sheetId="1" r:id="rId1"/>
     <sheet name="josa" sheetId="3" r:id="rId2"/>
     <sheet name="bojo" sheetId="5" r:id="rId3"/>
+    <sheet name="word" sheetId="6" r:id="rId4"/>
+    <sheet name="suffix" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">suffix!$A$1:$G$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">word!$A$1:$G$8</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="580">
   <si>
     <t>었</t>
   </si>
@@ -89,9 +95,6 @@
     <t>아</t>
   </si>
   <si>
-    <t>ㄹ</t>
-  </si>
-  <si>
     <t>다</t>
   </si>
   <si>
@@ -128,18 +131,9 @@
     <t>고</t>
   </si>
   <si>
-    <t>형태소/POS</t>
-  </si>
-  <si>
-    <t>불규칙조건</t>
-  </si>
-  <si>
     <t>분류</t>
   </si>
   <si>
-    <t>어미</t>
-  </si>
-  <si>
     <t>샘플</t>
   </si>
   <si>
@@ -188,24 +182,15 @@
     <t>올렸</t>
   </si>
   <si>
-    <t>품사제약조건</t>
-  </si>
-  <si>
     <t>ㄴ다</t>
   </si>
   <si>
     <t>ㄴ다/EF</t>
   </si>
   <si>
-    <t>#음절</t>
-  </si>
-  <si>
     <t>ㅕㅆ</t>
   </si>
   <si>
-    <t>조사</t>
-  </si>
-  <si>
     <t>의/JKG</t>
   </si>
   <si>
@@ -245,9 +230,6 @@
     <t>씩/XSN</t>
   </si>
   <si>
-    <t>계/XSN</t>
-  </si>
-  <si>
     <t>적/XSN</t>
   </si>
   <si>
@@ -311,9 +293,6 @@
     <t>씩</t>
   </si>
   <si>
-    <t>계</t>
-  </si>
-  <si>
     <t>적</t>
   </si>
   <si>
@@ -429,15 +408,6 @@
   </si>
   <si>
     <t>-하,-해,-라,-어</t>
-  </si>
-  <si>
-    <t>음운제약조건</t>
-  </si>
-  <si>
-    <t>형태제약조건</t>
-  </si>
-  <si>
-    <t>ㄴ</t>
   </si>
   <si>
     <t>+ㄹ</t>
@@ -538,9 +508,6 @@
     <t>되/VV+었/EP</t>
   </si>
   <si>
-    <t>동사</t>
-  </si>
-  <si>
     <t>ㅓ도</t>
   </si>
   <si>
@@ -598,9 +565,6 @@
     <t>음운(phoneme)제약조건</t>
   </si>
   <si>
-    <t>#음절(surface)</t>
-  </si>
-  <si>
     <t>형태(morpheme)제약조건</t>
   </si>
   <si>
@@ -688,9 +652,6 @@
     <t>으로써/JKB</t>
   </si>
   <si>
-    <t>ㅁ</t>
-  </si>
-  <si>
     <t>ㅁ/ETN</t>
   </si>
   <si>
@@ -700,9 +661,6 @@
     <t>함께</t>
   </si>
   <si>
-    <t>함께/MAG</t>
-  </si>
-  <si>
     <t>부사</t>
   </si>
   <si>
@@ -722,19 +680,1123 @@
   </si>
   <si>
     <t>내/VX</t>
+  </si>
+  <si>
+    <t>게</t>
+  </si>
+  <si>
+    <t>게/EC</t>
+  </si>
+  <si>
+    <t>건</t>
+  </si>
+  <si>
+    <t>건/NNB</t>
+  </si>
+  <si>
+    <t>년</t>
+  </si>
+  <si>
+    <t>명사</t>
+  </si>
+  <si>
+    <t>관형사</t>
+  </si>
+  <si>
+    <t>그</t>
+  </si>
+  <si>
+    <t>천</t>
+  </si>
+  <si>
+    <t>수사</t>
+  </si>
+  <si>
+    <t>으며</t>
+  </si>
+  <si>
+    <t>으며/EC</t>
+  </si>
+  <si>
+    <t>부도</t>
+  </si>
+  <si>
+    <t>동남아</t>
+  </si>
+  <si>
+    <t>까지</t>
+  </si>
+  <si>
+    <t>까지/JX</t>
+  </si>
+  <si>
+    <t>아서</t>
+  </si>
+  <si>
+    <t>아서/EC</t>
+  </si>
+  <si>
+    <t>겠</t>
+  </si>
+  <si>
+    <t>겠/EP</t>
+  </si>
+  <si>
+    <t>만큼</t>
+  </si>
+  <si>
+    <t>만큼/NNB</t>
+  </si>
+  <si>
+    <t>반드시</t>
+  </si>
+  <si>
+    <t>려면</t>
+  </si>
+  <si>
+    <t>려면/EC</t>
+  </si>
+  <si>
+    <t>보다</t>
+  </si>
+  <si>
+    <t>보다/JKB</t>
+  </si>
+  <si>
+    <t>주민</t>
+  </si>
+  <si>
+    <t>군</t>
+  </si>
+  <si>
+    <t>쯤</t>
+  </si>
+  <si>
+    <t>며</t>
+  </si>
+  <si>
+    <t>며/EC</t>
+  </si>
+  <si>
+    <t>관</t>
+  </si>
+  <si>
+    <t>대기</t>
+  </si>
+  <si>
+    <t>날</t>
+  </si>
+  <si>
+    <t>원</t>
+  </si>
+  <si>
+    <t>물</t>
+  </si>
+  <si>
+    <t>간</t>
+  </si>
+  <si>
+    <t>사건</t>
+  </si>
+  <si>
+    <t>방면</t>
+  </si>
+  <si>
+    <t>분</t>
+  </si>
+  <si>
+    <t>꼴</t>
+  </si>
+  <si>
+    <t>꼴/XSN</t>
+  </si>
+  <si>
+    <t>말</t>
+  </si>
+  <si>
+    <t>뿐</t>
+  </si>
+  <si>
+    <t>뿐/NNB</t>
+  </si>
+  <si>
+    <t>시키</t>
+  </si>
+  <si>
+    <t>시키/XSV</t>
+  </si>
+  <si>
+    <t>진</t>
+  </si>
+  <si>
+    <t>지/EC+는/JX</t>
+  </si>
+  <si>
+    <t>잡지</t>
+  </si>
+  <si>
+    <t>인</t>
+  </si>
+  <si>
+    <t>도로</t>
+  </si>
+  <si>
+    <t>새롭게</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>사고</t>
+  </si>
+  <si>
+    <t>연</t>
+  </si>
+  <si>
+    <t>기준</t>
+  </si>
+  <si>
+    <t>설</t>
+  </si>
+  <si>
+    <t>문</t>
+  </si>
+  <si>
+    <t>신</t>
+  </si>
+  <si>
+    <t>살</t>
+  </si>
+  <si>
+    <t>던</t>
+  </si>
+  <si>
+    <t>던/ETM</t>
+  </si>
+  <si>
+    <t>아니</t>
+  </si>
+  <si>
+    <t>아니/VCN</t>
+  </si>
+  <si>
+    <t>부정지정사</t>
+  </si>
+  <si>
+    <t>냐</t>
+  </si>
+  <si>
+    <t>냐/EC</t>
+  </si>
+  <si>
+    <t>손</t>
+  </si>
+  <si>
+    <t>발</t>
+  </si>
+  <si>
+    <t>#ㄴ</t>
+  </si>
+  <si>
+    <t>#ㄹ</t>
+  </si>
+  <si>
+    <t>#ㅁ</t>
+  </si>
+  <si>
+    <t>하/XSV+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>할</t>
+  </si>
+  <si>
+    <t>보/VX+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>볼</t>
+  </si>
+  <si>
+    <t>벌</t>
+  </si>
+  <si>
+    <t>벌/VV+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>VV+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>줄</t>
+  </si>
+  <si>
+    <t>주/VV+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>주/VX+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>되/XSV+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>될</t>
+  </si>
+  <si>
+    <t>팔/VV+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>팔</t>
+  </si>
+  <si>
+    <t>길</t>
+  </si>
+  <si>
+    <t>이르/VV+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>이를</t>
+  </si>
+  <si>
+    <t>갈</t>
+  </si>
+  <si>
+    <t>가/VV+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>기/ETN+ㄹ/JKO</t>
+  </si>
+  <si>
+    <t>사/VV+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>살/VV+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>알/VV+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>알</t>
+  </si>
+  <si>
+    <t>내밀</t>
+  </si>
+  <si>
+    <t>릴</t>
+  </si>
+  <si>
+    <t>서/VV+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>딜</t>
+  </si>
+  <si>
+    <t>견딜</t>
+  </si>
+  <si>
+    <t>살릴</t>
+  </si>
+  <si>
+    <t>ㄹ게요/EF</t>
+  </si>
+  <si>
+    <t>ㄹ게요</t>
+  </si>
+  <si>
+    <t>쓰일</t>
+  </si>
+  <si>
+    <t>쓰이/VV+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>내밀/VV+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>칠</t>
+  </si>
+  <si>
+    <t>가르칠</t>
+  </si>
+  <si>
+    <t>낄</t>
+  </si>
+  <si>
+    <t>느낄</t>
+  </si>
+  <si>
+    <t>떠날, 만날, 늘어날</t>
+  </si>
+  <si>
+    <t>올</t>
+  </si>
+  <si>
+    <t>나올</t>
+  </si>
+  <si>
+    <t>지/VX+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>질</t>
+  </si>
+  <si>
+    <t>나빠질</t>
+  </si>
+  <si>
+    <t>ㄹ지/EC</t>
+  </si>
+  <si>
+    <t>ㄹ지</t>
+  </si>
+  <si>
+    <t>말/VX+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>망치고 말</t>
+  </si>
+  <si>
+    <t>이/VCP+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>대부분인</t>
+  </si>
+  <si>
+    <t>VV+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>친</t>
+  </si>
+  <si>
+    <t>부친</t>
+  </si>
+  <si>
+    <t>붙이/VV+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>지친</t>
+  </si>
+  <si>
+    <t>VA+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>한</t>
+  </si>
+  <si>
+    <t>편한</t>
+  </si>
+  <si>
+    <t>못한</t>
+  </si>
+  <si>
+    <t>하/XSA+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>필요한</t>
+  </si>
+  <si>
+    <t>긴</t>
+  </si>
+  <si>
+    <t>끊긴</t>
+  </si>
+  <si>
+    <t>난</t>
+  </si>
+  <si>
+    <t>지난</t>
+  </si>
+  <si>
+    <t>른</t>
+  </si>
+  <si>
+    <t>+나</t>
+  </si>
+  <si>
+    <t>맡길</t>
+  </si>
+  <si>
+    <t>나타나길, 하길</t>
+  </si>
+  <si>
+    <t>온</t>
+  </si>
+  <si>
+    <t>올라온</t>
+  </si>
+  <si>
+    <t>하/VX+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>힘들</t>
+  </si>
+  <si>
+    <t>+팔</t>
+  </si>
+  <si>
+    <t>+끼</t>
+  </si>
+  <si>
+    <t>+기</t>
+  </si>
+  <si>
+    <t>되/XSV+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>된</t>
+  </si>
+  <si>
+    <t>대한</t>
+  </si>
+  <si>
+    <t>오른, 따른</t>
+  </si>
+  <si>
+    <t>+치</t>
+  </si>
+  <si>
+    <t>+오</t>
+  </si>
+  <si>
+    <t>본</t>
+  </si>
+  <si>
+    <t>보/VV+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>ㄴ다는/ETM</t>
+  </si>
+  <si>
+    <t>ㄴ다는</t>
+  </si>
+  <si>
+    <t>큰</t>
+  </si>
+  <si>
+    <t>멘</t>
+  </si>
+  <si>
+    <t>+메</t>
+  </si>
+  <si>
+    <t>목멘</t>
+  </si>
+  <si>
+    <t>계신</t>
+  </si>
+  <si>
+    <t>띄운</t>
+  </si>
+  <si>
+    <t>+우</t>
+  </si>
+  <si>
+    <t>단</t>
+  </si>
+  <si>
+    <t>달/V+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>부푼</t>
+  </si>
+  <si>
+    <t>부풀/VV+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>시/EP+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>모신</t>
+  </si>
+  <si>
+    <t>모시/V+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>크/VA+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>땐</t>
+  </si>
+  <si>
+    <t>때/NNG+ㄴ/JX</t>
+  </si>
+  <si>
+    <t>낸</t>
+  </si>
+  <si>
+    <t>+내</t>
+  </si>
+  <si>
+    <t>알아낸</t>
+  </si>
+  <si>
+    <t>버린</t>
+  </si>
+  <si>
+    <t>버리/VX+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>날아가 버린</t>
+  </si>
+  <si>
+    <t>엄청난</t>
+  </si>
+  <si>
+    <t>낀</t>
+  </si>
+  <si>
+    <t>느낀</t>
+  </si>
+  <si>
+    <t>가진</t>
+  </si>
+  <si>
+    <t>가지/VV+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>진/ETM</t>
+  </si>
+  <si>
+    <t>막진</t>
+  </si>
+  <si>
+    <t>보/VX+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>지켜 본</t>
+  </si>
+  <si>
+    <t>싼</t>
+  </si>
+  <si>
+    <t>싸/VA+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>ㄴ다고/EC</t>
+  </si>
+  <si>
+    <t>ㄴ다고</t>
+  </si>
+  <si>
+    <t>ㄴ가/EC</t>
+  </si>
+  <si>
+    <t>ㄴ가</t>
+  </si>
+  <si>
+    <t>그런가 하면</t>
+  </si>
+  <si>
+    <t>+ㅎ</t>
+  </si>
+  <si>
+    <t>둔</t>
+  </si>
+  <si>
+    <t>+두</t>
+  </si>
+  <si>
+    <t>앞둔, 가둔</t>
+  </si>
+  <si>
+    <t>숨진</t>
+  </si>
+  <si>
+    <t>+지</t>
+  </si>
+  <si>
+    <t>린</t>
+  </si>
+  <si>
+    <t>열린</t>
+  </si>
+  <si>
+    <t>+리</t>
+  </si>
+  <si>
+    <t>어린</t>
+  </si>
+  <si>
+    <t>스럽/XSA+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>스런</t>
+  </si>
+  <si>
+    <t>자랑스런</t>
+  </si>
+  <si>
+    <t>오/VX+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>살아 온</t>
+  </si>
+  <si>
+    <t>하/XSV+아서/EC+ㄴ/JX</t>
+  </si>
+  <si>
+    <t>해선</t>
+  </si>
+  <si>
+    <t>전후해선</t>
+  </si>
+  <si>
+    <t>두/VX+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>비축해둔</t>
+  </si>
+  <si>
+    <t>다른, 이른</t>
+  </si>
+  <si>
+    <t>산</t>
+  </si>
+  <si>
+    <t>살/VV+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>사/VV+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>ㄴ답니다/EF</t>
+  </si>
+  <si>
+    <t>ㄴ답니다</t>
+  </si>
+  <si>
+    <t>찬</t>
+  </si>
+  <si>
+    <t>힘찬</t>
+  </si>
+  <si>
+    <t>+차</t>
+  </si>
+  <si>
+    <t>선</t>
+  </si>
+  <si>
+    <t>따라나선</t>
+  </si>
+  <si>
+    <t>+서</t>
+  </si>
+  <si>
+    <t>나이가 든</t>
+  </si>
+  <si>
+    <t>번</t>
+  </si>
+  <si>
+    <t>+벌</t>
+  </si>
+  <si>
+    <t>쁜</t>
+  </si>
+  <si>
+    <t>+쁘</t>
+  </si>
+  <si>
+    <t>바쁜</t>
+  </si>
+  <si>
+    <t>조그만</t>
+  </si>
+  <si>
+    <t>조그맣/VA+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>에서/JKB+ㄴ/JX</t>
+  </si>
+  <si>
+    <t>에선</t>
+  </si>
+  <si>
+    <t>놀란</t>
+  </si>
+  <si>
+    <t>놀라/VV+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>모은</t>
+  </si>
+  <si>
+    <t>모으/VV+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>ㄴ다며/EC</t>
+  </si>
+  <si>
+    <t>ㄴ다며</t>
+  </si>
+  <si>
+    <t>찐</t>
+  </si>
+  <si>
+    <t>찌/VV+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>살이 찐</t>
+  </si>
+  <si>
+    <t>룬</t>
+  </si>
+  <si>
+    <t>+루</t>
+  </si>
+  <si>
+    <t>못이룬</t>
+  </si>
+  <si>
+    <t>하얀</t>
+  </si>
+  <si>
+    <t>하얗/VA+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>에게/JKB+ㄴ/JX</t>
+  </si>
+  <si>
+    <t>에겐</t>
+  </si>
+  <si>
+    <t>시키/XSV+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>시킨</t>
+  </si>
+  <si>
+    <t>다룬</t>
+  </si>
+  <si>
+    <t>다루/VV+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>잇따른</t>
+  </si>
+  <si>
+    <t>푸른</t>
+  </si>
+  <si>
+    <t>푸르/VA+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>내/VX+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>만들어 낸</t>
+  </si>
+  <si>
+    <t>ㄴ데/EC</t>
+  </si>
+  <si>
+    <t>ㄴ데</t>
+  </si>
+  <si>
+    <t>나/VX+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>묻고 난</t>
+  </si>
+  <si>
+    <t>다가/EC+ㄴ/JX</t>
+  </si>
+  <si>
+    <t>다간</t>
+  </si>
+  <si>
+    <t>지내다간</t>
+  </si>
+  <si>
+    <t>대로/JX</t>
+  </si>
+  <si>
+    <t>대로</t>
+  </si>
+  <si>
+    <t>깬</t>
+  </si>
+  <si>
+    <t>깨/VV+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>VA+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>VA+ㅁ/ETN</t>
+  </si>
+  <si>
+    <t>쁨</t>
+  </si>
+  <si>
+    <t>기쁨</t>
+  </si>
+  <si>
+    <t>VV+ㅁ/ETN</t>
+  </si>
+  <si>
+    <t>움</t>
+  </si>
+  <si>
+    <t>배움</t>
+  </si>
+  <si>
+    <t>안타까움</t>
+  </si>
+  <si>
+    <t>되/XSV+ㅁ/ETN</t>
+  </si>
+  <si>
+    <t>됨</t>
+  </si>
+  <si>
+    <t>함</t>
+  </si>
+  <si>
+    <t>러움</t>
+  </si>
+  <si>
+    <t>+럽</t>
+  </si>
+  <si>
+    <t>사랑스러움, 부러움</t>
+  </si>
+  <si>
+    <t>짐</t>
+  </si>
+  <si>
+    <t>빠짐</t>
+  </si>
+  <si>
+    <t>변함</t>
+  </si>
+  <si>
+    <t>남</t>
+  </si>
+  <si>
+    <t>탄로남</t>
+  </si>
+  <si>
+    <t>맡은</t>
+  </si>
+  <si>
+    <t>는지</t>
+  </si>
+  <si>
+    <t>는지/EC</t>
+  </si>
+  <si>
+    <t>있는지를</t>
+  </si>
+  <si>
+    <t>줬</t>
+  </si>
+  <si>
+    <t>주/VX+었/EP</t>
+  </si>
+  <si>
+    <t>줬다</t>
+  </si>
+  <si>
+    <t>었었</t>
+  </si>
+  <si>
+    <t>었었/EP</t>
+  </si>
+  <si>
+    <t>되었었다</t>
+  </si>
+  <si>
+    <t>으론</t>
+  </si>
+  <si>
+    <t>으로/JKB+는/JX</t>
+  </si>
+  <si>
+    <t>VV+어/EC</t>
+  </si>
+  <si>
+    <t>보여</t>
+  </si>
+  <si>
+    <t>ㅆ고</t>
+  </si>
+  <si>
+    <t>았/EP+고/EC</t>
+  </si>
+  <si>
+    <t>각</t>
+  </si>
+  <si>
+    <t>이나</t>
+  </si>
+  <si>
+    <t>이나/JX</t>
+  </si>
+  <si>
+    <t>듯</t>
+  </si>
+  <si>
+    <t>듯/NNB</t>
+  </si>
+  <si>
+    <t>ㄹ러</t>
+  </si>
+  <si>
+    <t>ㄹ러/EC</t>
+  </si>
+  <si>
+    <t>질러</t>
+  </si>
+  <si>
+    <t>+되</t>
+  </si>
+  <si>
+    <t>마다</t>
+  </si>
+  <si>
+    <t>마다/JX</t>
+  </si>
+  <si>
+    <t>총</t>
+  </si>
+  <si>
+    <t>렀</t>
+  </si>
+  <si>
+    <t>+러</t>
+  </si>
+  <si>
+    <t>이르렀다</t>
+  </si>
+  <si>
+    <t>탄</t>
+  </si>
+  <si>
+    <t>+타</t>
+  </si>
+  <si>
+    <t>버스에 탄</t>
+  </si>
+  <si>
+    <t>져</t>
+  </si>
+  <si>
+    <t>터져</t>
+  </si>
+  <si>
+    <t>주/VX+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>준</t>
+  </si>
+  <si>
+    <t>것</t>
+  </si>
+  <si>
+    <t>것/NNB</t>
+  </si>
+  <si>
+    <t>나빠</t>
+  </si>
+  <si>
+    <t>나쁘/VA+아/EC</t>
+  </si>
+  <si>
+    <t>갈/VV(+ㄹ)+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>너무</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>NNG</t>
+  </si>
+  <si>
+    <t>NNP</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>MAG</t>
+  </si>
+  <si>
+    <t>부터</t>
+  </si>
+  <si>
+    <t>부터/JX</t>
+  </si>
+  <si>
+    <t>이라는</t>
+  </si>
+  <si>
+    <t>이/VCP+라/EC+는/ETM</t>
+  </si>
+  <si>
+    <t>왔</t>
+  </si>
+  <si>
+    <t>오/VX+았/EP</t>
+  </si>
+  <si>
+    <t>오/VV+아/EC</t>
+  </si>
+  <si>
+    <t>에게</t>
+  </si>
+  <si>
+    <t>에게/JKB</t>
+  </si>
+  <si>
+    <t>주/VV+었/EP</t>
+  </si>
+  <si>
+    <t>주/VV+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>인데</t>
+  </si>
+  <si>
+    <t>이/VCP+ㄴ데/EC</t>
+  </si>
+  <si>
+    <t>비리인데</t>
+  </si>
+  <si>
+    <t>다는</t>
+  </si>
+  <si>
+    <t>다/EC+는/ETM</t>
+  </si>
+  <si>
+    <t>비리였다는</t>
+  </si>
+  <si>
+    <t>되는</t>
+  </si>
+  <si>
+    <t>되/XSV+는/ETM</t>
+  </si>
+  <si>
+    <t>구속되는</t>
+  </si>
+  <si>
+    <t>#표층어(surface)</t>
+  </si>
+  <si>
+    <t>하/XSV+ㅁ/ETN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -767,6 +1829,23 @@
       <name val="굴림"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="나눔명조"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="나눔명조"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="나눔명조"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -797,7 +1876,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="233">
+  <cellStyleXfs count="549">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1031,8 +2110,324 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1043,8 +2438,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="233">
+  <cellStyles count="549">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1161,6 +2561,164 @@
     <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1277,6 +2835,164 @@
     <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1606,680 +3322,2003 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.83203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G66" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="B131" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="183" spans="1:7">
+      <c r="A183" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G183" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3" t="s">
+      <c r="E184" s="3"/>
+      <c r="F184" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G184" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>54</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H48">
-    <sortCondition ref="B2"/>
+  <sortState ref="A2:G184">
+    <sortCondition ref="A183"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2293,374 +5332,400 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="7" width="14.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.83203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>37</v>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:H29">
-    <sortCondition ref="B2"/>
+  <sortState ref="A2:G42">
+    <sortCondition ref="A42"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2674,333 +5739,352 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="7" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.83203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>578</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>547</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>227</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>528</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>173</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>176</v>
+        <v>258</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>106</v>
+        <v>278</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>276</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="B24" s="1" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>221</v>
+        <v>96</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>220</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H26">
-    <sortCondition ref="C17"/>
+  <sortState ref="A2:H28">
+    <sortCondition ref="B28"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3010,4 +6094,592 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G8"/>
+  <sortState ref="A2:G43">
+    <sortCondition ref="B7"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G36"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/ko/pos/ko-pos-dic.xlsx
+++ b/data/ko/pos/ko-pos-dic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27260" windowHeight="13660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27260" windowHeight="13660" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="eomi" sheetId="8" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="to do list" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">eomi!$A$3:$L$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">eomi!$A$3:$L$151</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">head!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">suffix!$A$4:$H$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">word!$A$4:$I$10</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="817">
   <si>
     <t>었</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>샘플</t>
-  </si>
-  <si>
-    <t>올라</t>
   </si>
   <si>
     <t>+르</t>
@@ -1232,9 +1229,6 @@
     <t>움</t>
   </si>
   <si>
-    <t>배움</t>
-  </si>
-  <si>
     <t>안타까움</t>
   </si>
   <si>
@@ -1861,9 +1855,6 @@
     <t>+움</t>
   </si>
   <si>
-    <t>+ㅁ</t>
-  </si>
-  <si>
     <t>eomi</t>
   </si>
   <si>
@@ -1954,9 +1945,6 @@
     <t>head-tail</t>
   </si>
   <si>
-    <t>bojo-space</t>
-  </si>
-  <si>
     <t>는데다/EC</t>
   </si>
   <si>
@@ -2500,22 +2488,34 @@
     <t>surface</t>
   </si>
   <si>
-    <t>leftMorphemeBondCondition</t>
-  </si>
-  <si>
-    <t>leftPhonemeBondCondition</t>
-  </si>
-  <si>
-    <t>leftPosBondCondition</t>
-  </si>
-  <si>
-    <t>leftLemmatizationCondition</t>
-  </si>
-  <si>
     <t>morphemProperty</t>
   </si>
   <si>
     <t>phonemeProperty</t>
+  </si>
+  <si>
+    <t>배움, 비움, 세움</t>
+  </si>
+  <si>
+    <t>leftPhonemeCondition</t>
+  </si>
+  <si>
+    <t>leftPosCondition</t>
+  </si>
+  <si>
+    <t>leftLetterCondition</t>
+  </si>
+  <si>
+    <t>leftLemmatizationRule</t>
+  </si>
+  <si>
+    <t>bojo-verb-space</t>
+  </si>
+  <si>
+    <t>bojo-verb</t>
+  </si>
+  <si>
+    <t>eomi-ep</t>
   </si>
 </sst>
 </file>
@@ -2627,8 +2627,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1355">
+  <cellStyleXfs count="1391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4010,7 +4046,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1355">
+  <cellStyles count="1391">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4688,6 +4724,24 @@
     <cellStyle name="Followed Hyperlink" xfId="1350" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1352" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5365,6 +5419,24 @@
     <cellStyle name="Hyperlink" xfId="1349" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1351" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5694,18 +5766,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S174"/>
+  <dimension ref="A1:S173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="20.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
@@ -5717,203 +5789,202 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17">
       <c r="A1" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>812</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>810</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>809</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="G2" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>808</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>807</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>811</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>813</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>814</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>815</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A3" s="11" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>487</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F6" s="6"/>
       <c r="K6" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>599</v>
+      <c r="C8" s="1" t="s">
+        <v>816</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="J8" s="2" t="s">
-        <v>614</v>
-      </c>
+      <c r="I8" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5924,50 +5995,46 @@
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>487</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>487</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5978,353 +6045,353 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="6" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>599</v>
+        <v>816</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="L19" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="L25" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="K26" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="L26" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -6335,169 +6402,163 @@
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>579</v>
-      </c>
       <c r="L28" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>487</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>487</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="L31" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -6505,22 +6566,22 @@
         <v>21</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -6531,19 +6592,17 @@
         <v>5</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>487</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -6554,1732 +6613,1729 @@
         <v>14</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>487</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="L39" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>741</v>
-      </c>
       <c r="K43" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>596</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>520</v>
+      </c>
       <c r="E44" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H44" s="2"/>
       <c r="K44" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D45" s="2"/>
+        <v>596</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>520</v>
+      </c>
       <c r="E45" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H45" s="2"/>
+      <c r="K45" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="L45" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="L49" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H50" s="2" t="s">
+      <c r="K50" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="L50" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="H51" s="2" t="s">
+      <c r="K51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="L51" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="2"/>
       <c r="G52" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="2"/>
       <c r="G53" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>35</v>
+        <v>721</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="1" t="s">
-        <v>34</v>
+        <v>732</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E57" s="2"/>
       <c r="K57" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>736</v>
+        <v>670</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>725</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="E59" s="2"/>
       <c r="K59" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>28</v>
+        <v>728</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>13</v>
+        <v>729</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E60" s="2"/>
+        <v>596</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>721</v>
+      </c>
       <c r="K60" s="1" t="s">
-        <v>675</v>
+        <v>730</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>732</v>
+        <v>664</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>733</v>
+        <v>15</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>599</v>
+        <v>816</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>725</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="J61" s="2"/>
       <c r="K61" s="1" t="s">
-        <v>734</v>
+        <v>37</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>15</v>
+        <v>418</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="J62" s="2"/>
+        <v>34</v>
+      </c>
       <c r="K62" s="1" t="s">
-        <v>38</v>
+        <v>419</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>669</v>
+        <v>726</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>420</v>
+        <v>9</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" s="2"/>
+        <v>102</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>35</v>
+        <v>721</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>421</v>
+        <v>727</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>731</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>729</v>
+        <v>423</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>816</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>725</v>
+        <v>517</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>735</v>
+        <v>424</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>425</v>
+        <v>765</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2" t="s">
-        <v>614</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
       <c r="K66" s="1" t="s">
-        <v>426</v>
+        <v>766</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>769</v>
+        <v>183</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
+        <v>596</v>
+      </c>
       <c r="K67" s="1" t="s">
-        <v>770</v>
+        <v>672</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>184</v>
+        <v>776</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>185</v>
+        <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>599</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
       <c r="K68" s="1" t="s">
-        <v>676</v>
+        <v>40</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>780</v>
+        <v>749</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>474</v>
+        <v>816</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="1" t="s">
-        <v>41</v>
+        <v>787</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>599</v>
+        <v>816</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
+        <v>334</v>
+      </c>
       <c r="K70" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>568</v>
+        <v>792</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>568</v>
+      <c r="A71" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6" t="s">
-        <v>370</v>
+      <c r="A72" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>673</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>35</v>
+        <v>334</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="H74" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>678</v>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6" t="s">
+        <v>675</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6" t="s">
-        <v>679</v>
+      <c r="A75" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>204</v>
+        <v>299</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>268</v>
+        <v>99</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>301</v>
+        <v>596</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>513</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>302</v>
+        <v>722</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>515</v>
+        <v>596</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>728</v>
+        <v>317</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>317</v>
+        <v>99</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>318</v>
+        <v>617</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>100</v>
+        <v>322</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>620</v>
+        <v>323</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>323</v>
+        <v>229</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>324</v>
+        <v>685</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="L84" s="6" t="s">
-        <v>568</v>
+        <v>616</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>43</v>
+        <v>615</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>4</v>
+        <v>618</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>621</v>
+        <v>15</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>599</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="E87" s="2"/>
       <c r="G87" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>618</v>
+        <v>354</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E88" s="2"/>
+        <v>596</v>
+      </c>
       <c r="G88" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>616</v>
+        <v>355</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>615</v>
+        <v>686</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="K89" s="1" t="s">
-        <v>690</v>
+        <v>391</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>392</v>
+        <v>693</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="K91" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>218</v>
+        <v>634</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>17</v>
+        <v>635</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>353</v>
+        <v>816</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>568</v>
+        <v>794</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>638</v>
+        <v>336</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>639</v>
+        <v>335</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="L93" s="4" t="s">
-        <v>568</v>
+        <v>337</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>337</v>
+        <v>679</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>336</v>
+        <v>695</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>338</v>
+        <v>596</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>683</v>
+        <v>133</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>699</v>
+        <v>134</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>134</v>
+        <v>627</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>135</v>
+        <v>628</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>568</v>
+        <v>816</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="H96" s="4"/>
+      <c r="I96" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>631</v>
+        <v>375</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>632</v>
+        <v>374</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="H97" s="4"/>
-      <c r="I97" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4" t="s">
-        <v>568</v>
+        <v>596</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>376</v>
+        <v>219</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>220</v>
+        <v>698</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>308</v>
+        <v>699</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>700</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>702</v>
+        <v>20</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>703</v>
+        <v>4</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>705</v>
+        <v>541</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>477</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>107</v>
+        <v>478</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D102" s="2"/>
+        <v>596</v>
+      </c>
       <c r="E102" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>543</v>
+        <v>484</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>479</v>
+        <v>176</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>480</v>
+        <v>177</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>599</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>486</v>
+        <v>705</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2" t="s">
-        <v>530</v>
+        <v>816</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="1" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>599</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>706</v>
+        <v>542</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1" t="s">
-        <v>24</v>
+        <v>479</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>9</v>
+        <v>480</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D107" s="2"/>
+        <v>596</v>
+      </c>
       <c r="E107" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>544</v>
+        <v>483</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="1" t="s">
-        <v>481</v>
+        <v>22</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>482</v>
+        <v>6</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>485</v>
+        <v>703</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>530</v>
+        <v>816</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1" t="s">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1</v>
+        <v>408</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>519</v>
+        <v>816</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>710</v>
+        <v>409</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1" t="s">
-        <v>409</v>
+        <v>68</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>410</v>
+        <v>150</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="G111" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
+        <v>596</v>
+      </c>
       <c r="G112" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>414</v>
+        <v>708</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -8287,647 +8343,647 @@
         <v>7</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>42</v>
+        <v>707</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>712</v>
+        <v>38</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>711</v>
+        <v>596</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>39</v>
+        <v>339</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K115" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="L115" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="1" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="1" t="s">
-        <v>263</v>
+        <v>535</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>474</v>
+        <v>636</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>296</v>
+        <v>88</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>264</v>
+        <v>536</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="1" t="s">
-        <v>537</v>
+        <v>443</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>107</v>
+        <v>444</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>89</v>
+        <v>816</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>538</v>
+        <v>710</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="1" t="s">
-        <v>445</v>
+        <v>87</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>446</v>
+        <v>99</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>614</v>
+        <v>596</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>714</v>
+        <v>533</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="H120" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>535</v>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6" t="s">
+        <v>711</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>100</v>
+      <c r="A121" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
-      <c r="K121" s="6" t="s">
-        <v>715</v>
+        <v>596</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="G121" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>809</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K122" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="L122" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="1" t="s">
-        <v>393</v>
+        <v>537</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F123" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>517</v>
+      </c>
       <c r="G123" s="1" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>395</v>
+        <v>538</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>519</v>
+        <v>596</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>640</v>
+        <v>472</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
       <c r="K124" s="1" t="s">
-        <v>540</v>
+        <v>784</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="1" t="s">
-        <v>539</v>
+        <v>785</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="1" t="s">
-        <v>789</v>
+        <v>762</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
+        <v>303</v>
+      </c>
       <c r="K126" s="1" t="s">
-        <v>790</v>
+        <v>110</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="1" t="s">
-        <v>766</v>
+        <v>464</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>110</v>
+        <v>466</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>111</v>
+        <v>465</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="1" t="s">
-        <v>466</v>
+        <v>789</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>468</v>
+        <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>474</v>
+        <v>596</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>568</v>
+        <v>797</v>
+      </c>
+      <c r="L128" s="4" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="129" spans="1:12">
-      <c r="A129" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="L129" s="4" t="s">
-        <v>568</v>
+      <c r="A129" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="H129" s="7"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="6" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>487</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="D130" s="7"/>
       <c r="E130" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="6" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="6" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="H131" s="7"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
-      <c r="K131" s="6" t="s">
-        <v>718</v>
+      <c r="A131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>715</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="1" t="s">
-        <v>19</v>
+        <v>590</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>3</v>
+        <v>591</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>599</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="D132" s="2"/>
       <c r="E132" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>536</v>
+        <v>473</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="1" t="s">
-        <v>592</v>
+        <v>441</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>593</v>
+        <v>442</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>724</v>
+        <v>596</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="1" t="s">
-        <v>443</v>
+        <v>211</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>444</v>
+        <v>269</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="1" t="s">
-        <v>212</v>
+        <v>450</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>270</v>
+        <v>451</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>271</v>
+        <v>452</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="1" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>453</v>
+        <v>150</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="C137" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>333</v>
+        <v>596</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>430</v>
+        <v>739</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="1" t="s">
-        <v>432</v>
+        <v>233</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>431</v>
+        <v>235</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="1" t="s">
-        <v>234</v>
+        <v>405</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>236</v>
+        <v>406</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>599</v>
+        <v>816</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="1" t="s">
-        <v>407</v>
+        <v>26</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>408</v>
+        <v>266</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>614</v>
+        <v>596</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>742</v>
+        <v>667</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -8935,741 +8991,733 @@
         <v>26</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>103</v>
+        <v>596</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>672</v>
+        <v>513</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>671</v>
+        <v>741</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="143" spans="1:12">
-      <c r="A143" s="1" t="s">
-        <v>2</v>
+      <c r="A143" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>515</v>
+        <v>596</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>746</v>
+        <v>564</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="144" spans="1:12">
-      <c r="A144" s="8" t="s">
-        <v>209</v>
+      <c r="A144" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>333</v>
+        <v>596</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>513</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>566</v>
+        <v>321</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>321</v>
+        <v>99</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>515</v>
+        <v>596</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>322</v>
+        <v>743</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="1" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>333</v>
+        <v>596</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="1" t="s">
-        <v>266</v>
+        <v>397</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>749</v>
+        <v>398</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="1" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="1" t="s">
-        <v>349</v>
+        <v>752</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>536</v>
+        <v>816</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>351</v>
+        <v>294</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="L150" s="1" t="s">
-        <v>568</v>
+        <v>799</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="1" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>474</v>
+        <v>596</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>295</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
       <c r="K151" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="L151" s="4" t="s">
-        <v>568</v>
+        <v>774</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="1" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
       <c r="K152" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="1" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>474</v>
+        <v>816</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
+        <v>773</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>611</v>
+      </c>
       <c r="K153" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="L153" s="1" t="s">
-        <v>568</v>
+        <v>796</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="1" t="s">
-        <v>795</v>
+        <v>271</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>474</v>
+        <v>596</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>777</v>
+        <v>294</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="L154" s="4" t="s">
-        <v>568</v>
+        <v>274</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="1" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="1" t="s">
-        <v>258</v>
+        <v>767</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>295</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
       <c r="K156" s="1" t="s">
-        <v>259</v>
+        <v>769</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="1" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="K157" s="1" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="1" t="s">
-        <v>781</v>
+        <v>751</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>474</v>
+        <v>816</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
+        <v>768</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>611</v>
+      </c>
       <c r="K158" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="L158" s="1" t="s">
-        <v>568</v>
+        <v>795</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="1" t="s">
-        <v>755</v>
+        <v>275</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>772</v>
+        <v>596</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="L159" s="4" t="s">
-        <v>568</v>
+        <v>276</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="161" spans="1:19">
       <c r="A161" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>278</v>
+        <v>99</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>279</v>
+        <v>757</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="162" spans="1:19">
       <c r="A162" s="1" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>100</v>
+        <v>227</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>94</v>
+        <v>596</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="163" spans="1:19">
       <c r="A163" s="1" t="s">
-        <v>229</v>
+        <v>396</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>228</v>
+        <v>456</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>599</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="H163" s="2"/>
       <c r="K163" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="164" spans="1:19">
       <c r="A164" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>458</v>
+        <v>155</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="H164" s="2"/>
+        <v>596</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="K164" s="1" t="s">
-        <v>762</v>
+        <v>399</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="165" spans="1:19">
       <c r="A165" s="1" t="s">
-        <v>398</v>
+        <v>89</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>401</v>
+        <v>91</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>568</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="M165" s="4"/>
+      <c r="N165" s="4"/>
+      <c r="O165" s="4"/>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
+      <c r="R165" s="4"/>
+      <c r="S165" s="4"/>
     </row>
     <row r="166" spans="1:19">
       <c r="A166" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C166" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>94</v>
+        <v>596</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>92</v>
+        <v>760</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="M166" s="4"/>
-      <c r="N166" s="4"/>
-      <c r="O166" s="4"/>
-      <c r="P166" s="4"/>
-      <c r="Q166" s="4"/>
-      <c r="R166" s="4"/>
-      <c r="S166" s="4"/>
+        <v>566</v>
+      </c>
     </row>
     <row r="167" spans="1:19">
       <c r="A167" s="1" t="s">
-        <v>90</v>
+        <v>341</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>91</v>
+        <v>340</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>764</v>
+        <v>342</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="168" spans="1:19">
       <c r="A168" s="1" t="s">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>341</v>
+        <v>15</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>599</v>
+        <v>816</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>343</v>
+        <v>92</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="169" spans="1:19">
       <c r="A169" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>15</v>
+        <v>467</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>94</v>
+        <v>816</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>93</v>
+        <v>469</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="170" spans="1:19">
       <c r="A170" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>469</v>
+        <v>86</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>599</v>
+        <v>816</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="171" spans="1:19">
       <c r="A171" s="1" t="s">
-        <v>84</v>
+        <v>763</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>599</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
       <c r="K171" s="1" t="s">
-        <v>470</v>
+        <v>36</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="172" spans="1:19">
       <c r="A172" s="1" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
       <c r="K172" s="1" t="s">
-        <v>37</v>
+        <v>780</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="173" spans="1:19">
       <c r="A173" s="1" t="s">
-        <v>779</v>
+        <v>750</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>474</v>
+        <v>816</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
+        <v>764</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>611</v>
+      </c>
       <c r="K173" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19">
-      <c r="A174" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="K174" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="L174" s="4" t="s">
-        <v>568</v>
+        <v>793</v>
+      </c>
+      <c r="L173" s="4" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -9692,7 +9740,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9711,56 +9759,56 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17">
       <c r="A1" s="5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A3" s="11" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -9771,84 +9819,90 @@
         <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>512</v>
+      </c>
       <c r="K7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="K8" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="K9" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -9856,352 +9910,358 @@
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H11" s="2"/>
       <c r="K11" s="1" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H12" s="2"/>
       <c r="K12" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H14" s="2"/>
       <c r="K14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H19" s="2"/>
       <c r="K19" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="K27" s="1" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
+      <c r="F33" s="1" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
+      <c r="F34" s="1" t="s">
+        <v>509</v>
+      </c>
       <c r="K34" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="2"/>
@@ -10212,27 +10272,27 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -10241,13 +10301,13 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -10256,80 +10316,80 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -10633,8 +10693,8 @@
   <dimension ref="A1:L190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10653,56 +10713,56 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17">
       <c r="A1" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A3" s="11" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10710,431 +10770,429 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>515</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="K6" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>629</v>
+        <v>814</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>604</v>
+        <v>815</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>604</v>
+        <v>815</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>604</v>
+        <v>815</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>604</v>
+        <v>815</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>604</v>
+        <v>815</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H20" s="2"/>
       <c r="K20" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>604</v>
+        <v>815</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>604</v>
+        <v>815</v>
       </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>604</v>
+        <v>815</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>604</v>
+        <v>815</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>604</v>
+        <v>815</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>629</v>
+        <v>814</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>604</v>
+        <v>815</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>604</v>
+        <v>815</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>604</v>
+        <v>815</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>604</v>
+        <v>815</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>604</v>
+        <v>815</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>604</v>
+        <v>815</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -11142,23 +11200,23 @@
         <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>604</v>
+        <v>815</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>604</v>
+        <v>815</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -11488,9 +11546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11510,661 +11568,661 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17">
       <c r="A1" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A3" s="11" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>670</v>
+        <v>513</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>515</v>
+        <v>666</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E17" s="2"/>
       <c r="K17" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="K26" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="K28" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="2"/>
       <c r="H37" s="2"/>
       <c r="K37" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="2"/>
@@ -12172,13 +12230,13 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -12187,207 +12245,210 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="J42" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>347</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="H43" s="2"/>
       <c r="K43" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H46" s="2"/>
       <c r="K46" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H50" s="2"/>
       <c r="K50" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -12397,13 +12458,13 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -12411,51 +12472,51 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -12731,7 +12792,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12750,56 +12811,56 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17">
       <c r="A1" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A3" s="11" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -12807,120 +12868,120 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H7" s="2"/>
       <c r="J7" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H11" s="2"/>
       <c r="J11" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -13314,7 +13375,7 @@
   <dimension ref="A1:L187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -13334,56 +13395,56 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17">
       <c r="A1" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A3" s="11" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -13391,137 +13452,137 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -13530,10 +13591,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -13541,247 +13602,247 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="2"/>
@@ -13789,13 +13850,13 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="2"/>
@@ -13803,13 +13864,13 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -13818,13 +13879,13 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -14148,7 +14209,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -14156,7 +14217,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -14164,7 +14225,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>

--- a/data/ko/pos/ko-pos-dic.xlsx
+++ b/data/ko/pos/ko-pos-dic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27260" windowHeight="13660" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27260" windowHeight="13660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eomi" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="848">
   <si>
     <t>었</t>
   </si>
@@ -1307,9 +1307,6 @@
     <t>ㄹ러/EC</t>
   </si>
   <si>
-    <t>질러</t>
-  </si>
-  <si>
     <t>마다</t>
   </si>
   <si>
@@ -1544,13 +1541,7 @@
     <t>가/VV</t>
   </si>
   <si>
-    <t>갈/VV</t>
-  </si>
-  <si>
     <t>소가 밭을 갑니다</t>
-  </si>
-  <si>
-    <t>학교를 가다</t>
   </si>
   <si>
     <t>소가 밭을 갈다</t>
@@ -1975,45 +1966,18 @@
     <t>시/EP+었/EP</t>
   </si>
   <si>
-    <t>VV(ㅂ)</t>
-  </si>
-  <si>
     <t>든데</t>
   </si>
   <si>
     <t>든데다</t>
   </si>
   <si>
-    <t>VV(ㄹ)</t>
-  </si>
-  <si>
-    <t>VA(ㅂ)</t>
-  </si>
-  <si>
     <t>좌측원형복원룰</t>
   </si>
   <si>
     <t>좌측형태(마지막음절)제약조건</t>
   </si>
   <si>
-    <t>고맙/VV(ㅂ)</t>
-  </si>
-  <si>
-    <t>그렇/VV(ㅎ)</t>
-  </si>
-  <si>
-    <t>돕/VV(ㅂ)</t>
-  </si>
-  <si>
-    <t>긋/VV(ㅅ)</t>
-  </si>
-  <si>
-    <t>밉/VA(ㅂ)</t>
-  </si>
-  <si>
-    <t>갈/VV(ㄹ)+ㄹ/ETM</t>
-  </si>
-  <si>
     <t>되/VV+ㄴ/ETM</t>
   </si>
   <si>
@@ -2035,15 +1999,9 @@
     <t>결합됨</t>
   </si>
   <si>
-    <t>VV(ㄹ) VA(ㄹ)</t>
-  </si>
-  <si>
     <t>나이가 든, 높이 든</t>
   </si>
   <si>
-    <t>들/VV(ㄹ)+ㄴ/ETM</t>
-  </si>
-  <si>
     <t>+디</t>
   </si>
   <si>
@@ -2110,9 +2068,6 @@
     <t>니다</t>
   </si>
   <si>
-    <t>갈/VV(ㄹ)</t>
-  </si>
-  <si>
     <t>돈을 번</t>
   </si>
   <si>
@@ -2128,12 +2083,6 @@
     <t>바쁜, 나쁜</t>
   </si>
   <si>
-    <t>살/VV(ㄹ)+ㄴ/ETM</t>
-  </si>
-  <si>
-    <t>살/VV(ㄹ)+ㄹ/ETM</t>
-  </si>
-  <si>
     <t>이 집에 살 사람</t>
   </si>
   <si>
@@ -2516,6 +2465,150 @@
   </si>
   <si>
     <t>eomi-ep</t>
+  </si>
+  <si>
+    <t>VV VA VX VCP VCN XSV XSA</t>
+  </si>
+  <si>
+    <t>굵기가 가는데</t>
+  </si>
+  <si>
+    <t>가는</t>
+  </si>
+  <si>
+    <t>굵기가 가는 바늘</t>
+  </si>
+  <si>
+    <t>가는데</t>
+  </si>
+  <si>
+    <t>가는데다</t>
+  </si>
+  <si>
+    <t>굵기가 가는데다</t>
+  </si>
+  <si>
+    <t>질러, 걸러</t>
+  </si>
+  <si>
+    <t>모왔</t>
+  </si>
+  <si>
+    <t>모으/VV+았/EP</t>
+  </si>
+  <si>
+    <t>뜻을 모왔다</t>
+  </si>
+  <si>
+    <t>지어주었고, 지었다</t>
+  </si>
+  <si>
+    <t>+었 +아</t>
+  </si>
+  <si>
+    <t>하/XSA+지/EC</t>
+  </si>
+  <si>
+    <t>치</t>
+  </si>
+  <si>
+    <t>여의치 않았다</t>
+  </si>
+  <si>
+    <t>한숨지</t>
+  </si>
+  <si>
+    <t>한숨지었다</t>
+  </si>
+  <si>
+    <t>모</t>
+  </si>
+  <si>
+    <t>의견을 모았다</t>
+  </si>
+  <si>
+    <t>모으/VV</t>
+  </si>
+  <si>
+    <t>VV VA XSV</t>
+  </si>
+  <si>
+    <t>+어간 +었</t>
+  </si>
+  <si>
+    <t>사건이었다, 사건이어서</t>
+  </si>
+  <si>
+    <t>-VV -VA</t>
+  </si>
+  <si>
+    <t>-JKS</t>
+  </si>
+  <si>
+    <t>+어간 +ㅆ -ㄹ</t>
+  </si>
+  <si>
+    <t>+어간 -ㄹ</t>
+  </si>
+  <si>
+    <t>소가 밭을 가는데</t>
+  </si>
+  <si>
+    <t>가늘/VV(가늘)+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>가늘/VV(가늘)+ㄴ데/EC</t>
+  </si>
+  <si>
+    <t>가늘/VV(가늘)+ㄴ데다/EC</t>
+  </si>
+  <si>
+    <t>갈/VV(갈)</t>
+  </si>
+  <si>
+    <t>갈/VV(갈)+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>고맙/VV</t>
+  </si>
+  <si>
+    <t>그렇/VV</t>
+  </si>
+  <si>
+    <t>들/VV+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>밉/VA</t>
+  </si>
+  <si>
+    <t>살/VV(살)+ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>짓/VV</t>
+  </si>
+  <si>
+    <t>한숨짓/VV</t>
+  </si>
+  <si>
+    <t>학교에 갑니다</t>
+  </si>
+  <si>
+    <t>학교에 가다</t>
+  </si>
+  <si>
+    <t>듣/VV(듣)</t>
+  </si>
+  <si>
+    <t>+아 +ㅆ</t>
+  </si>
+  <si>
+    <t>살/VV(살)+ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>하/VX+았/EP</t>
+  </si>
+  <si>
+    <t>했다</t>
   </si>
 </sst>
 </file>
@@ -2627,8 +2720,190 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1391">
+  <cellStyleXfs count="1573">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4046,7 +4321,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1391">
+  <cellStyles count="1573">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4742,6 +5017,97 @@
     <cellStyle name="Followed Hyperlink" xfId="1386" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1388" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1572" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5437,6 +5803,97 @@
     <cellStyle name="Hyperlink" xfId="1385" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1571" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5766,11 +6223,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S173"/>
+  <dimension ref="A1:S175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D133" sqref="D133"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5789,77 +6246,81 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17">
       <c r="A1" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
+      </c>
+      <c r="E1" s="1">
+        <f>190000/3</f>
+        <v>63333.333333333336</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="15" t="s">
-        <v>806</v>
+        <v>789</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>807</v>
+        <v>790</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A3" s="11" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5870,47 +6331,47 @@
         <v>327</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="1" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5921,29 +6382,29 @@
         <v>164</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F6" s="6"/>
       <c r="K6" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="6" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>253</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>102</v>
@@ -5952,13 +6413,13 @@
         <v>102</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5969,22 +6430,22 @@
         <v>179</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F8" s="6"/>
       <c r="I8" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5995,46 +6456,46 @@
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="1" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6045,16 +6506,16 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>596</v>
+        <v>799</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>534</v>
+        <v>821</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6065,10 +6526,10 @@
         <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>291</v>
@@ -6077,7 +6538,7 @@
         <v>280</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -6088,10 +6549,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>291</v>
@@ -6100,18 +6561,18 @@
         <v>284</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="6" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>102</v>
@@ -6120,13 +6581,13 @@
         <v>102</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -6137,30 +6598,30 @@
         <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>290</v>
@@ -6168,24 +6629,24 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="1" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>290</v>
@@ -6193,33 +6654,33 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>290</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -6230,10 +6691,10 @@
         <v>99</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>290</v>
@@ -6242,7 +6703,7 @@
         <v>319</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -6253,10 +6714,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>290</v>
@@ -6265,7 +6726,7 @@
         <v>260</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -6276,13 +6737,13 @@
         <v>382</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>383</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -6293,19 +6754,19 @@
         <v>99</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>283</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -6316,10 +6777,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>283</v>
@@ -6328,7 +6789,7 @@
         <v>261</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -6339,10 +6800,10 @@
         <v>155</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>283</v>
@@ -6351,7 +6812,7 @@
         <v>401</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -6362,13 +6823,13 @@
         <v>380</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>381</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -6379,10 +6840,10 @@
         <v>99</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>313</v>
@@ -6391,7 +6852,7 @@
         <v>314</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -6402,84 +6863,87 @@
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>513</v>
+        <v>827</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>575</v>
-      </c>
       <c r="K28" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
-        <v>485</v>
+        <v>826</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>485</v>
+        <v>826</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -6490,28 +6954,28 @@
         <v>403</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>485</v>
+        <v>826</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>404</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>88</v>
@@ -6520,27 +6984,27 @@
         <v>88</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>88</v>
@@ -6549,16 +7013,16 @@
         <v>88</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -6569,19 +7033,19 @@
         <v>43</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -6592,17 +7056,17 @@
         <v>5</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="L35" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -6613,133 +7077,133 @@
         <v>14</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>326</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>297</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>454</v>
-      </c>
       <c r="C39" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>364</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>347</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -6750,39 +7214,39 @@
         <v>222</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -6793,23 +7257,23 @@
         <v>106</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H44" s="2"/>
       <c r="K44" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -6820,23 +7284,23 @@
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H45" s="2"/>
       <c r="K45" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -6847,13 +7311,13 @@
         <v>292</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -6864,13 +7328,13 @@
         <v>236</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -6881,13 +7345,13 @@
         <v>394</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -6898,13 +7362,13 @@
         <v>343</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>344</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -6915,10 +7379,10 @@
         <v>99</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>330</v>
@@ -6927,7 +7391,7 @@
         <v>331</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -6938,10 +7402,10 @@
         <v>99</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>656</v>
+        <v>531</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>100</v>
@@ -6950,48 +7414,48 @@
         <v>101</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="2"/>
       <c r="G52" s="1" t="s">
-        <v>639</v>
+        <v>471</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>100</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="2"/>
       <c r="G53" s="1" t="s">
-        <v>639</v>
+        <v>531</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>100</v>
@@ -7000,7 +7464,7 @@
         <v>105</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -7011,10 +7475,10 @@
         <v>17</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>656</v>
+        <v>531</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>100</v>
@@ -7023,7 +7487,7 @@
         <v>289</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -7034,19 +7498,19 @@
         <v>17</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>252</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -7057,28 +7521,28 @@
         <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="1" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -7089,14 +7553,14 @@
         <v>132</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E57" s="2"/>
       <c r="K57" s="1" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -7107,25 +7571,25 @@
         <v>106</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -7136,203 +7600,206 @@
         <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E59" s="2"/>
       <c r="K59" s="1" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>418</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>34</v>
+        <v>704</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>419</v>
+        <v>807</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>334</v>
@@ -7340,10 +7807,10 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="1" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -7354,27 +7821,27 @@
         <v>184</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>334</v>
@@ -7385,21 +7852,21 @@
         <v>40</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>334</v>
@@ -7407,33 +7874,33 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="1" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>334</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -7444,13 +7911,13 @@
         <v>99</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>368</v>
@@ -7461,7 +7928,7 @@
         <v>369</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -7472,19 +7939,19 @@
         <v>99</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -7495,19 +7962,19 @@
         <v>99</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>334</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -7518,7 +7985,7 @@
         <v>17</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>102</v>
@@ -7526,7 +7993,7 @@
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>334</v>
@@ -7534,10 +8001,10 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -7548,13 +8015,13 @@
         <v>267</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>268</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -7565,10 +8032,10 @@
         <v>99</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>300</v>
@@ -7577,7 +8044,7 @@
         <v>301</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -7588,16 +8055,16 @@
         <v>191</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -7608,16 +8075,16 @@
         <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -7628,16 +8095,16 @@
         <v>115</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -7648,13 +8115,13 @@
         <v>316</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>317</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -7665,19 +8132,19 @@
         <v>99</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -7688,13 +8155,13 @@
         <v>322</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>323</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -7705,13 +8172,13 @@
         <v>229</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -7722,13 +8189,13 @@
         <v>84</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -7739,66 +8206,66 @@
         <v>4</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>618</v>
-      </c>
       <c r="C86" s="1" t="s">
-        <v>596</v>
+        <v>799</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="E87" s="2"/>
       <c r="G87" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -7809,19 +8276,19 @@
         <v>99</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>355</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -7832,10 +8299,10 @@
         <v>155</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>355</v>
@@ -7844,7 +8311,7 @@
         <v>391</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -7855,19 +8322,19 @@
         <v>99</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>352</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -7878,48 +8345,48 @@
         <v>17</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>352</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -7930,27 +8397,27 @@
         <v>335</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>337</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -7961,40 +8428,40 @@
         <v>134</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>788</v>
+        <v>771</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -8005,10 +8472,10 @@
         <v>374</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -8019,30 +8486,30 @@
         <v>307</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -8053,20 +8520,20 @@
         <v>4</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -8077,43 +8544,43 @@
         <v>106</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="C102" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -8124,20 +8591,20 @@
         <v>177</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -8148,16 +8615,16 @@
         <v>15</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -8168,19 +8635,19 @@
         <v>150</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -8191,43 +8658,43 @@
         <v>9</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
-        <v>528</v>
+        <v>844</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="C107" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -8238,19 +8705,19 @@
         <v>6</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -8261,16 +8728,20 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>517</v>
+        <v>799</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" s="1" t="s">
+        <v>800</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -8281,13 +8752,13 @@
         <v>408</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>409</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -8298,12 +8769,12 @@
         <v>150</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="G111" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>41</v>
@@ -8312,7 +8783,7 @@
         <v>412</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -8323,19 +8794,19 @@
         <v>6</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -8346,16 +8817,16 @@
         <v>85</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>38</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -8366,13 +8837,13 @@
         <v>338</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>339</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -8383,10 +8854,10 @@
         <v>99</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>295</v>
@@ -8395,7 +8866,7 @@
         <v>287</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -8406,10 +8877,10 @@
         <v>17</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>295</v>
@@ -8418,57 +8889,57 @@
         <v>263</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>636</v>
+        <v>471</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>88</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="C118" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -8479,23 +8950,23 @@
         <v>99</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>303</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -8506,15 +8977,15 @@
         <v>99</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F120" s="6"/>
-      <c r="G120" s="6" t="s">
-        <v>636</v>
+      <c r="G120" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>88</v>
@@ -8522,10 +8993,10 @@
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
       <c r="K120" s="6" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -8536,20 +9007,20 @@
         <v>155</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E121" s="2"/>
       <c r="G121" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>303</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -8560,15 +9031,15 @@
         <v>155</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="1" t="s">
-        <v>640</v>
+        <v>471</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>88</v>
@@ -8577,51 +9048,51 @@
         <v>393</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>636</v>
+        <v>471</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>88</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>303</v>
@@ -8629,24 +9100,24 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="1" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="1" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>303</v>
@@ -8654,24 +9125,24 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="1" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="1" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>303</v>
@@ -8680,53 +9151,53 @@
         <v>110</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>303</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="1" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>303</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -8737,24 +9208,24 @@
         <v>140</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="6" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -8765,24 +9236,24 @@
         <v>171</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="6" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="6" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -8793,57 +9264,57 @@
         <v>3</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="C133" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -8854,70 +9325,70 @@
         <v>269</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K134" s="1" t="s">
         <v>270</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="K135" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="L135" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>332</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -8928,13 +9399,13 @@
         <v>235</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -8945,16 +9416,16 @@
         <v>406</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -8965,7 +9436,7 @@
         <v>266</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>102</v>
@@ -8974,16 +9445,16 @@
         <v>102</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -8994,16 +9465,16 @@
         <v>11</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -9014,16 +9485,16 @@
         <v>39</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -9034,19 +9505,19 @@
         <v>99</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>332</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -9057,16 +9528,16 @@
         <v>320</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K144" s="1" t="s">
         <v>321</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -9077,19 +9548,19 @@
         <v>99</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>332</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -9100,13 +9571,13 @@
         <v>264</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -9117,19 +9588,19 @@
         <v>17</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>332</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -9140,10 +9611,10 @@
         <v>155</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>332</v>
@@ -9152,7 +9623,7 @@
         <v>398</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -9163,10 +9634,10 @@
         <v>99</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>350</v>
@@ -9175,248 +9646,248 @@
         <v>349</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="1" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>294</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="1" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
       <c r="K151" s="1" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="1" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
       <c r="K152" s="1" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="1" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="1" t="s">
-        <v>271</v>
+        <v>814</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>99</v>
+        <v>813</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>294</v>
+        <v>593</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="L154" s="1" t="s">
-        <v>566</v>
+        <v>815</v>
+      </c>
+      <c r="L154" s="4" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="1" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>294</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="1" t="s">
-        <v>767</v>
+        <v>257</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
+        <v>294</v>
+      </c>
       <c r="K156" s="1" t="s">
-        <v>769</v>
+        <v>258</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="1" t="s">
-        <v>777</v>
+        <v>750</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="K157" s="1" t="s">
-        <v>781</v>
+        <v>752</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>611</v>
-      </c>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
       <c r="K158" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="L158" s="4" t="s">
-        <v>566</v>
+        <v>764</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="1" t="s">
-        <v>275</v>
+        <v>734</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>596</v>
+        <v>799</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>608</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="L159" s="1" t="s">
-        <v>566</v>
+        <v>778</v>
+      </c>
+      <c r="L159" s="4" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -9424,16 +9895,16 @@
         <v>275</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="161" spans="1:19">
@@ -9441,57 +9912,56 @@
         <v>275</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>99</v>
+        <v>277</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>93</v>
+        <v>593</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>757</v>
+        <v>278</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="162" spans="1:19">
       <c r="A162" s="1" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="163" spans="1:19">
       <c r="A163" s="1" t="s">
-        <v>396</v>
+        <v>228</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>456</v>
+        <v>227</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="H163" s="2"/>
+        <v>593</v>
+      </c>
       <c r="K163" s="1" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="164" spans="1:19">
@@ -9499,45 +9969,40 @@
         <v>396</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>155</v>
+        <v>455</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="H164" s="2"/>
       <c r="K164" s="1" t="s">
-        <v>399</v>
+        <v>741</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="165" spans="1:19">
       <c r="A165" s="1" t="s">
-        <v>89</v>
+        <v>396</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>93</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>91</v>
+        <v>399</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
@@ -9552,56 +10017,56 @@
         <v>89</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>760</v>
+        <v>91</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="167" spans="1:19">
       <c r="A167" s="1" t="s">
-        <v>341</v>
+        <v>89</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>342</v>
+        <v>743</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="168" spans="1:19">
       <c r="A168" s="1" t="s">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>15</v>
+        <v>340</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>92</v>
+        <v>342</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="169" spans="1:19">
@@ -9609,19 +10074,22 @@
         <v>83</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>467</v>
+        <v>15</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>469</v>
+        <v>92</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="170" spans="1:19">
@@ -9629,100 +10097,140 @@
         <v>83</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>86</v>
+        <v>466</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K170" s="1" t="s">
         <v>468</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="171" spans="1:19">
       <c r="A171" s="1" t="s">
-        <v>763</v>
+        <v>83</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
+        <v>799</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>608</v>
+      </c>
       <c r="K171" s="1" t="s">
-        <v>36</v>
+        <v>467</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="172" spans="1:19">
       <c r="A172" s="1" t="s">
-        <v>775</v>
+        <v>83</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>6</v>
+        <v>846</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
+        <v>799</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>608</v>
+      </c>
       <c r="K172" s="1" t="s">
-        <v>780</v>
+        <v>847</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="173" spans="1:19">
       <c r="A173" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19">
+      <c r="A174" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19">
+      <c r="A175" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="K173" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="L173" s="4" t="s">
-        <v>566</v>
+      <c r="C175" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:L175">
-    <sortCondition ref="A4"/>
+  <sortState ref="A4:L174">
+    <sortCondition ref="A165"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -9736,11 +10244,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L188"/>
+  <dimension ref="A1:L187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9759,45 +10267,45 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17">
       <c r="A1" s="5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A3" s="11" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -9808,7 +10316,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -9822,7 +10330,7 @@
         <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -9835,12 +10343,12 @@
         <v>138</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -9851,12 +10359,12 @@
         <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>160</v>
@@ -9864,18 +10372,18 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="K8" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -9886,7 +10394,7 @@
         <v>245</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9902,7 +10410,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -9913,14 +10421,14 @@
         <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H11" s="2"/>
       <c r="K11" s="1" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -9931,7 +10439,7 @@
         <v>384</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H12" s="2"/>
       <c r="K12" s="1" t="s">
@@ -9946,7 +10454,7 @@
         <v>387</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -9958,7 +10466,7 @@
         <v>148</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H14" s="2"/>
       <c r="K14" s="1" t="s">
@@ -9973,326 +10481,330 @@
         <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>310</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>311</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>600</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>310</v>
+        <v>146</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>146</v>
+        <v>460</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>147</v>
+        <v>461</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H18" s="2"/>
+      <c r="K18" s="1" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>462</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="K19" s="1" t="s">
-        <v>463</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>420</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>600</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>420</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>421</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="H21" s="2"/>
+        <v>597</v>
+      </c>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>185</v>
+        <v>438</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>186</v>
+        <v>439</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>600</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>439</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>440</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>445</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>446</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>801</v>
+        <v>373</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>152</v>
+        <v>372</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="K27" s="1" t="s">
-        <v>802</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>446</v>
+        <v>784</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>447</v>
+        <v>152</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
+      <c r="K28" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>373</v>
+        <v>144</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>372</v>
+        <v>145</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>144</v>
+        <v>359</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>145</v>
+        <v>358</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>359</v>
+        <v>151</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>358</v>
+        <v>152</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
+      <c r="F32" s="1" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+        <v>597</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>153</v>
+        <v>410</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>154</v>
+        <v>411</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>600</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>410</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>411</v>
+        <v>51</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="2"/>
+      <c r="F37" s="1" t="s">
+        <v>509</v>
+      </c>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D38" s="9"/>
+        <v>597</v>
+      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="1" t="s">
-        <v>512</v>
-      </c>
+      <c r="F38" s="2"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -10301,52 +10813,48 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="H40" s="2"/>
+        <v>597</v>
+      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>70</v>
+        <v>414</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>415</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>600</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>414</v>
+        <v>80</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>415</v>
+        <v>62</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="H43" s="2"/>
+        <v>597</v>
+      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -10356,41 +10864,33 @@
         <v>62</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>600</v>
-      </c>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:11">
       <c r="H48" s="2"/>
@@ -10401,8 +10901,12 @@
     <row r="50" spans="6:10">
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="6:10">
-      <c r="H51" s="2"/>
+    <row r="55" spans="6:10">
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
     </row>
     <row r="56" spans="6:10">
       <c r="F56" s="2"/>
@@ -10412,20 +10916,16 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="6:10">
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="6:10">
-      <c r="H58" s="2"/>
+    </row>
+    <row r="62" spans="6:10">
+      <c r="H62" s="2"/>
     </row>
     <row r="63" spans="6:10">
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="6:10">
-      <c r="H64" s="2"/>
+    <row r="65" spans="8:8">
+      <c r="H65" s="2"/>
     </row>
     <row r="66" spans="8:8">
       <c r="H66" s="2"/>
@@ -10442,36 +10942,44 @@
     <row r="70" spans="8:8">
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="8:8">
-      <c r="H71" s="2"/>
-    </row>
-    <row r="74" spans="8:8">
-      <c r="H74" s="2"/>
-    </row>
-    <row r="82" spans="5:8">
-      <c r="H82" s="2"/>
-    </row>
-    <row r="84" spans="5:8">
-      <c r="H84" s="2"/>
-    </row>
-    <row r="90" spans="5:8">
+    <row r="73" spans="8:8">
+      <c r="H73" s="2"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="H81" s="2"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="H83" s="2"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="1:10">
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="5:8">
+    <row r="91" spans="1:10">
+      <c r="E91" s="2"/>
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="5:8">
-      <c r="E92" s="2"/>
+    <row r="92" spans="1:10">
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="5:8">
-      <c r="H93" s="2"/>
-    </row>
-    <row r="95" spans="5:8">
+    <row r="94" spans="1:10">
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:10">
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="5:8">
-      <c r="H96" s="2"/>
+    <row r="96" spans="1:10">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="3"/>
@@ -10485,15 +10993,7 @@
       <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
+      <c r="H98" s="2"/>
     </row>
     <row r="99" spans="1:10">
       <c r="H99" s="2"/>
@@ -10504,31 +11004,32 @@
     <row r="101" spans="1:10">
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="1:10">
-      <c r="H102" s="2"/>
+    <row r="109" spans="1:10">
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
     </row>
     <row r="110" spans="1:10">
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:10">
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:10">
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="4:8">
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="4:8">
-      <c r="H114" s="2"/>
+      <c r="H113" s="2"/>
+    </row>
+    <row r="116" spans="4:8">
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
     </row>
     <row r="117" spans="4:8">
-      <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
@@ -10536,96 +11037,95 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="4:8">
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="122" spans="4:8">
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="H122" s="2"/>
-    </row>
-    <row r="125" spans="4:8">
-      <c r="H125" s="2"/>
-    </row>
-    <row r="128" spans="4:8">
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="H128" s="2"/>
+    <row r="121" spans="4:8">
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="H121" s="2"/>
+    </row>
+    <row r="124" spans="4:8">
+      <c r="H124" s="2"/>
+    </row>
+    <row r="127" spans="4:8">
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="H127" s="2"/>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="H129" s="2"/>
     </row>
     <row r="130" spans="1:11">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="H130" s="2"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
-      <c r="K131" s="6"/>
+      <c r="E131" s="2"/>
+      <c r="H131" s="2"/>
     </row>
     <row r="132" spans="1:11">
+      <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="H132" s="2"/>
     </row>
     <row r="133" spans="1:11">
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
       <c r="H133" s="2"/>
     </row>
     <row r="134" spans="1:11">
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
       <c r="H134" s="2"/>
     </row>
-    <row r="135" spans="1:11">
-      <c r="H135" s="2"/>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="H145" s="2"/>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="8"/>
-      <c r="H155" s="2"/>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="H157" s="2"/>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="H159" s="2"/>
+    <row r="139" spans="1:11">
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="H144" s="2"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="8"/>
+      <c r="H154" s="2"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="H156" s="2"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="H158" s="2"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="H160" s="2"/>
     </row>
     <row r="161" spans="8:8">
       <c r="H161" s="2"/>
     </row>
-    <row r="162" spans="8:8">
-      <c r="H162" s="2"/>
+    <row r="164" spans="8:8">
+      <c r="H164" s="2"/>
     </row>
     <row r="165" spans="8:8">
       <c r="H165" s="2"/>
     </row>
-    <row r="166" spans="8:8">
-      <c r="H166" s="2"/>
-    </row>
-    <row r="168" spans="8:8">
-      <c r="H168" s="2"/>
+    <row r="167" spans="8:8">
+      <c r="H167" s="2"/>
+    </row>
+    <row r="170" spans="8:8">
+      <c r="H170" s="2"/>
     </row>
     <row r="171" spans="8:8">
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="8:8">
-      <c r="H172" s="2"/>
+    <row r="173" spans="8:8">
+      <c r="H173" s="2"/>
     </row>
     <row r="174" spans="8:8">
       <c r="H174" s="2"/>
@@ -10633,11 +11133,14 @@
     <row r="175" spans="8:8">
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="8:8">
-      <c r="H176" s="2"/>
-    </row>
-    <row r="179" spans="4:12">
-      <c r="H179" s="2"/>
+    <row r="178" spans="4:12">
+      <c r="H178" s="2"/>
+    </row>
+    <row r="183" spans="4:12">
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
     </row>
     <row r="184" spans="4:12">
       <c r="G184" s="2"/>
@@ -10652,27 +11155,21 @@
       <c r="J185" s="2"/>
     </row>
     <row r="186" spans="4:12">
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
-      <c r="I186" s="2"/>
-      <c r="J186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+      <c r="L186" s="4"/>
     </row>
     <row r="187" spans="4:12">
-      <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="3"/>
-      <c r="H187" s="4"/>
-      <c r="I187" s="10"/>
-      <c r="J187" s="4"/>
-      <c r="K187" s="4"/>
-      <c r="L187" s="4"/>
-    </row>
-    <row r="188" spans="4:12">
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="3"/>
-      <c r="I188" s="2"/>
+      <c r="I187" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A4:L46">
@@ -10693,8 +11190,8 @@
   <dimension ref="A1:L190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10713,45 +11210,45 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17">
       <c r="A1" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A3" s="11" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -10762,63 +11259,65 @@
         <v>166</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="K6" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -10829,7 +11328,7 @@
         <v>202</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -10842,7 +11341,7 @@
         <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -10855,7 +11354,7 @@
         <v>162</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10868,7 +11367,7 @@
         <v>130</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -10881,15 +11380,15 @@
         <v>130</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -10900,7 +11399,7 @@
         <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -10911,7 +11410,7 @@
         <v>417</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -10923,7 +11422,7 @@
         <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -10935,7 +11434,7 @@
         <v>181</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -10947,7 +11446,7 @@
         <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -10959,7 +11458,7 @@
         <v>124</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -10971,7 +11470,7 @@
         <v>205</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -10982,17 +11481,17 @@
         <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H20" s="2"/>
       <c r="K20" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -11003,7 +11502,7 @@
         <v>207</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -11015,7 +11514,7 @@
         <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -11027,7 +11526,7 @@
         <v>224</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -11038,7 +11537,7 @@
         <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -11050,7 +11549,7 @@
         <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -11062,7 +11561,7 @@
         <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -11074,28 +11573,28 @@
         <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -11106,20 +11605,26 @@
         <v>108</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -11132,7 +11637,7 @@
         <v>143</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -11145,7 +11650,7 @@
         <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -11158,36 +11663,36 @@
         <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -11203,7 +11708,7 @@
         <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -11216,7 +11721,7 @@
         <v>136</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -11544,11 +12049,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L188"/>
+  <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11568,45 +12073,45 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17">
       <c r="A1" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A3" s="11" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -11614,973 +12119,1081 @@
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>500</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>243</v>
+        <v>802</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>498</v>
+        <v>829</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>514</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="H5" s="2"/>
       <c r="K5" s="1" t="s">
-        <v>501</v>
+        <v>803</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>243</v>
+        <v>804</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>830</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="K6" s="1" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>243</v>
+        <v>805</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>648</v>
+        <v>831</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="K7" s="1" t="s">
+        <v>806</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>496</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>497</v>
+        <v>832</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>88</v>
+        <v>654</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>495</v>
+        <v>828</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>496</v>
+        <v>243</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>681</v>
+        <v>832</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>88</v>
+        <v>652</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>716</v>
+        <v>243</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>717</v>
+        <v>244</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>718</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>697</v>
+        <v>833</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>625</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>643</v>
+        <v>496</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>516</v>
+        <v>88</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>168</v>
+        <v>495</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>646</v>
+        <v>832</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>517</v>
+        <v>88</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>578</v>
+        <v>699</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>644</v>
+        <v>700</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>602</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>567</v>
+        <v>702</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>328</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>530</v>
+        <v>302</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>531</v>
+        <v>680</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>517</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>433</v>
+        <v>515</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>434</v>
+        <v>834</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>602</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>520</v>
+        <v>540</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>249</v>
+        <v>168</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>256</v>
+        <v>528</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="K17" s="1" t="s">
-        <v>623</v>
+        <v>599</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>249</v>
+        <v>575</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>621</v>
+        <v>835</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+        <v>599</v>
+      </c>
       <c r="I18" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>517</v>
+        <v>564</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>622</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>360</v>
+        <v>527</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>361</v>
+        <v>528</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>599</v>
+      </c>
       <c r="E20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>474</v>
+        <v>256</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>622</v>
+      </c>
       <c r="E21" s="2"/>
+      <c r="K21" s="1" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>645</v>
+        <v>618</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="H22" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>482</v>
+        <v>522</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>609</v>
+        <v>360</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>610</v>
+        <v>361</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>612</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>529</v>
+        <v>376</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>481</v>
+        <v>377</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>516</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>117</v>
+        <v>304</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>118</v>
+        <v>473</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="I25" s="2" t="s">
-        <v>611</v>
-      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>293</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>649</v>
+        <v>480</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="K26" s="1" t="s">
-        <v>650</v>
+        <v>599</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>293</v>
+        <v>606</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>651</v>
+        <v>607</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>567</v>
+        <v>608</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>460</v>
+        <v>609</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>526</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>658</v>
+        <v>480</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="K28" s="1" t="s">
-        <v>657</v>
+        <v>599</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>526</v>
+        <v>117</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>527</v>
+        <v>118</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="H29" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>517</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>527</v>
+        <v>637</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>517</v>
+        <v>622</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="K30" s="1" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>753</v>
+        <v>293</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>754</v>
+        <v>639</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="H31" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>611</v>
+        <v>564</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>544</v>
+        <v>98</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>545</v>
+        <v>836</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>546</v>
+        <v>622</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="K32" s="1" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>308</v>
+        <v>523</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>362</v>
+        <v>69</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>363</v>
+        <v>843</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>539</v>
+        <v>736</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>647</v>
+        <v>737</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>353</v>
+        <v>541</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>683</v>
+        <v>542</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>682</v>
+        <v>599</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>231</v>
+        <v>818</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>232</v>
+        <v>820</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="2"/>
+        <v>599</v>
+      </c>
       <c r="H37" s="2"/>
+      <c r="I37" s="2" t="s">
+        <v>812</v>
+      </c>
       <c r="K37" s="1" t="s">
-        <v>684</v>
+        <v>819</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>524</v>
+        <v>308</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>515</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>808</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>519</v>
+        <v>809</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="I39" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>515</v>
+        <v>599</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>273</v>
+        <v>363</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D40" s="9"/>
+        <v>622</v>
+      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>305</v>
+        <v>536</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>306</v>
+        <v>837</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+        <v>599</v>
+      </c>
       <c r="H41" s="2"/>
+      <c r="I41" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>521</v>
+        <v>353</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>522</v>
+        <v>668</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>515</v>
+        <v>622</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>346</v>
+      <c r="A43" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="D43" s="9"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
       <c r="H43" s="2"/>
       <c r="K43" s="1" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>687</v>
+      <c r="A44" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>691</v>
+        <v>599</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>246</v>
+        <v>516</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>692</v>
+        <v>599</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="I45" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>688</v>
+        <v>273</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>625</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="K46" s="1" t="s">
-        <v>689</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>625</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>254</v>
+        <v>518</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>255</v>
+        <v>519</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>625</v>
+        <v>599</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>247</v>
+      <c r="A49" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="K49" s="1" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>445</v>
+      <c r="A50" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>838</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="H50" s="2"/>
+        <v>622</v>
+      </c>
       <c r="K50" s="1" t="s">
-        <v>709</v>
+        <v>674</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="H51" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>356</v>
+        <v>220</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>357</v>
+        <v>845</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H52" s="2"/>
+      <c r="K52" s="1" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>430</v>
+        <v>324</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>449</v>
+        <v>325</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>405</v>
+        <v>248</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>448</v>
+        <v>247</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>365</v>
+        <v>141</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="K56" s="1" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+        <v>622</v>
+      </c>
       <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>425</v>
+        <v>356</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>746</v>
+        <v>357</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+        <v>622</v>
+      </c>
       <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="1" t="s">
-        <v>426</v>
-      </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>238</v>
+      <c r="A59" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>378</v>
+        <v>233</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>379</v>
+        <v>234</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>370</v>
+        <v>119</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>371</v>
+        <v>744</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>119</v>
+        <v>405</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>761</v>
+        <v>447</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>625</v>
+        <v>599</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="63" spans="1:11">
+      <c r="A63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>599</v>
+      </c>
       <c r="H63" s="2"/>
+      <c r="I63" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="H64" s="2"/>
-    </row>
-    <row r="66" spans="8:8">
+      <c r="A64" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="8:8">
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="8:8">
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="8:8">
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="8:8">
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>599</v>
+      </c>
       <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="8:8">
+      <c r="I70" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="H71" s="2"/>
     </row>
-    <row r="74" spans="8:8">
-      <c r="H74" s="2"/>
-    </row>
-    <row r="82" spans="5:8">
-      <c r="H82" s="2"/>
-    </row>
-    <row r="84" spans="5:8">
-      <c r="H84" s="2"/>
-    </row>
-    <row r="90" spans="5:8">
-      <c r="H90" s="2"/>
+    <row r="72" spans="1:11">
+      <c r="H72" s="2"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="H75" s="2"/>
+    </row>
+    <row r="83" spans="5:8">
+      <c r="H83" s="2"/>
+    </row>
+    <row r="85" spans="5:8">
+      <c r="H85" s="2"/>
     </row>
     <row r="91" spans="5:8">
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="5:8">
-      <c r="E92" s="2"/>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="5:8">
+      <c r="E93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="95" spans="5:8">
-      <c r="H95" s="2"/>
+    <row r="94" spans="5:8">
+      <c r="H94" s="2"/>
     </row>
     <row r="96" spans="5:8">
       <c r="H96" s="2"/>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
+      <c r="H97" s="2"/>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="3"/>
@@ -12594,7 +13207,15 @@
       <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="H99" s="2"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
     </row>
     <row r="100" spans="1:10">
       <c r="H100" s="2"/>
@@ -12605,32 +13226,31 @@
     <row r="102" spans="1:10">
       <c r="H102" s="2"/>
     </row>
-    <row r="110" spans="1:10">
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
+    <row r="103" spans="1:10">
+      <c r="H103" s="2"/>
     </row>
     <row r="111" spans="1:10">
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:10">
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="4:8">
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="4:8">
-      <c r="H114" s="2"/>
-    </row>
-    <row r="117" spans="4:8">
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="4:8">
+      <c r="H115" s="2"/>
     </row>
     <row r="118" spans="4:8">
+      <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
@@ -12638,95 +13258,96 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="122" spans="4:8">
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="H122" s="2"/>
-    </row>
-    <row r="125" spans="4:8">
-      <c r="H125" s="2"/>
-    </row>
-    <row r="128" spans="4:8">
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="H128" s="2"/>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="H130" s="2"/>
+    <row r="120" spans="4:8">
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="123" spans="4:8">
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="H123" s="2"/>
+    </row>
+    <row r="126" spans="4:8">
+      <c r="H126" s="2"/>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="H129" s="2"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
       <c r="D131" s="2"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
-      <c r="K131" s="6"/>
+      <c r="E131" s="2"/>
+      <c r="H131" s="2"/>
     </row>
     <row r="132" spans="1:11">
-      <c r="E132" s="2"/>
-      <c r="H132" s="2"/>
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
     </row>
     <row r="133" spans="1:11">
-      <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="H133" s="2"/>
     </row>
     <row r="134" spans="1:11">
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
       <c r="H134" s="2"/>
     </row>
     <row r="135" spans="1:11">
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
       <c r="H135" s="2"/>
     </row>
-    <row r="140" spans="1:11">
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="H145" s="2"/>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="8"/>
-      <c r="H155" s="2"/>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="H157" s="2"/>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="H159" s="2"/>
-    </row>
-    <row r="161" spans="8:8">
-      <c r="H161" s="2"/>
+    <row r="136" spans="1:11">
+      <c r="H136" s="2"/>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="H146" s="2"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="8"/>
+      <c r="H156" s="2"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="H158" s="2"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="H160" s="2"/>
     </row>
     <row r="162" spans="8:8">
       <c r="H162" s="2"/>
     </row>
-    <row r="165" spans="8:8">
-      <c r="H165" s="2"/>
+    <row r="163" spans="8:8">
+      <c r="H163" s="2"/>
     </row>
     <row r="166" spans="8:8">
       <c r="H166" s="2"/>
     </row>
-    <row r="168" spans="8:8">
-      <c r="H168" s="2"/>
-    </row>
-    <row r="171" spans="8:8">
-      <c r="H171" s="2"/>
+    <row r="167" spans="8:8">
+      <c r="H167" s="2"/>
+    </row>
+    <row r="169" spans="8:8">
+      <c r="H169" s="2"/>
     </row>
     <row r="172" spans="8:8">
       <c r="H172" s="2"/>
     </row>
-    <row r="174" spans="8:8">
-      <c r="H174" s="2"/>
+    <row r="173" spans="8:8">
+      <c r="H173" s="2"/>
     </row>
     <row r="175" spans="8:8">
       <c r="H175" s="2"/>
@@ -12734,14 +13355,11 @@
     <row r="176" spans="8:8">
       <c r="H176" s="2"/>
     </row>
-    <row r="179" spans="4:12">
-      <c r="H179" s="2"/>
-    </row>
-    <row r="184" spans="4:12">
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="2"/>
-      <c r="J184" s="2"/>
+    <row r="177" spans="4:12">
+      <c r="H177" s="2"/>
+    </row>
+    <row r="180" spans="4:12">
+      <c r="H180" s="2"/>
     </row>
     <row r="185" spans="4:12">
       <c r="G185" s="2"/>
@@ -12756,25 +13374,31 @@
       <c r="J186" s="2"/>
     </row>
     <row r="187" spans="4:12">
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="4"/>
-      <c r="I187" s="10"/>
-      <c r="J187" s="4"/>
-      <c r="K187" s="4"/>
-      <c r="L187" s="4"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
     </row>
     <row r="188" spans="4:12">
+      <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="3"/>
-      <c r="I188" s="2"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="4"/>
+      <c r="K188" s="4"/>
+      <c r="L188" s="4"/>
+    </row>
+    <row r="189" spans="4:12">
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="3"/>
+      <c r="I189" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A4:L58">
-    <sortCondition ref="A4"/>
+  <sortState ref="A4:L69">
+    <sortCondition ref="A68"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -12811,45 +13435,45 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17">
       <c r="A1" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A3" s="11" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -12857,10 +13481,10 @@
         <v>413</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -12871,39 +13495,39 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H7" s="2"/>
       <c r="J7" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -12911,10 +13535,10 @@
         <v>182</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -12924,40 +13548,40 @@
         <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H11" s="2"/>
       <c r="J11" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -12965,10 +13589,10 @@
         <v>275</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -12978,10 +13602,10 @@
         <v>156</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -13375,8 +13999,8 @@
   <dimension ref="A1:L187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13395,45 +14019,45 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17">
       <c r="A1" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A3" s="11" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -13441,10 +14065,10 @@
         <v>197</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -13455,10 +14079,10 @@
         <v>192</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -13468,10 +14092,10 @@
         <v>188</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -13481,10 +14105,10 @@
         <v>188</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -13494,10 +14118,10 @@
         <v>216</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -13507,10 +14131,10 @@
         <v>194</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -13520,10 +14144,10 @@
         <v>167</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -13531,10 +14155,10 @@
         <v>193</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -13543,10 +14167,10 @@
         <v>212</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -13555,10 +14179,10 @@
         <v>173</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -13567,10 +14191,10 @@
         <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -13579,10 +14203,10 @@
         <v>203</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -13591,10 +14215,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -13602,10 +14226,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -13614,10 +14238,10 @@
         <v>218</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -13626,10 +14250,10 @@
         <v>196</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -13638,10 +14262,10 @@
         <v>226</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -13649,10 +14273,10 @@
         <v>199</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -13661,10 +14285,10 @@
         <v>172</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -13673,10 +14297,10 @@
         <v>200</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -13685,10 +14309,10 @@
         <v>198</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -13698,10 +14322,10 @@
         <v>214</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -13711,10 +14335,10 @@
         <v>220</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -13724,10 +14348,10 @@
         <v>217</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -13737,10 +14361,10 @@
         <v>225</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -13750,10 +14374,10 @@
         <v>219</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -13763,10 +14387,10 @@
         <v>215</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -13776,10 +14400,10 @@
         <v>195</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -13789,10 +14413,10 @@
         <v>213</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -13802,10 +14426,10 @@
         <v>210</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -13815,10 +14439,10 @@
         <v>76</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -13828,10 +14452,10 @@
         <v>187</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -13839,10 +14463,10 @@
         <v>208</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="2"/>
@@ -13850,47 +14474,58 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="2"/>
-      <c r="H37" s="2"/>
+        <v>602</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="D38" s="9"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="42" spans="1:8">
       <c r="H42" s="2"/>
@@ -14178,8 +14813,8 @@
       <c r="I187" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G37">
-    <sortCondition ref="A28"/>
+  <sortState ref="A4:K40">
+    <sortCondition ref="A17"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -14209,7 +14844,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -14217,7 +14852,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -14225,7 +14860,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>

--- a/data/ko/pos/ko-pos-dic.xlsx
+++ b/data/ko/pos/ko-pos-dic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="0" windowWidth="26120" windowHeight="13660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="eomi" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="954">
   <si>
     <t>었</t>
   </si>
@@ -2924,6 +2924,9 @@
   <si>
     <t>+ㄴ -는</t>
   </si>
+  <si>
+    <t>#만</t>
+  </si>
 </sst>
 </file>
 
@@ -2935,7 +2938,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3040,8 +3043,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1957">
+  <cellStyleXfs count="1959">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5026,7 +5031,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1957">
+  <cellStyles count="1959">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -6005,6 +6010,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1952" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1954" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1958" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6983,6 +6989,7 @@
     <cellStyle name="Hyperlink" xfId="1951" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1953" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1957" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11586,7 +11593,7 @@
   <dimension ref="A1:L186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -15815,8 +15822,8 @@
   <dimension ref="A1:L187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16004,7 +16011,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>953</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>436</v>
@@ -16016,7 +16023,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>953</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>434</v>
